--- a/Arduino MIDI-CV Converter 使用例 .xlsx
+++ b/Arduino MIDI-CV Converter 使用例 .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\MIDI_CV_CONV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\MIDI_CV_CONV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>デジタル系</t>
     <rPh sb="4" eb="5">
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.12.01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MIDI-THRU</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -115,6 +111,14 @@
   </si>
   <si>
     <t>CV(Cutoff)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CV(Freq)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.12.07</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -266,11 +270,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1172018864"/>
-        <c:axId val="1172016144"/>
+        <c:axId val="2076882208"/>
+        <c:axId val="2076879488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1172018864"/>
+        <c:axId val="2076882208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -312,7 +316,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1172016144"/>
+        <c:crossAx val="2076879488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -320,7 +324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1172016144"/>
+        <c:axId val="2076879488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +374,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1172018864"/>
+        <c:crossAx val="2076882208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1007,7 +1011,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1067,7 +1071,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1115,13 +1119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>278</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>170792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1133,8 +1137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515175" y="2049516"/>
-          <a:ext cx="1878446" cy="1537139"/>
+          <a:off x="8058150" y="1714500"/>
+          <a:ext cx="2571750" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,10 +1162,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ASS01</a:t>
+            <a:t>DASS01</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1173,13 +1177,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>1847</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>1846</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1293,7 +1297,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1438,15 +1442,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>2779</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1492,15 +1496,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>2779</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1546,15 +1550,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>2779</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>2120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1600,15 +1604,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>161192</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>161191</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1618,8 +1622,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476142" y="3600450"/>
-          <a:ext cx="1543049" cy="342900"/>
+          <a:off x="5657850" y="3771900"/>
+          <a:ext cx="1028699" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,13 +1777,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>1847</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1822,13 +1826,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9175</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>1846</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1879,13 +1883,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>8899</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1985,14 +1989,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>161192</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2004,8 +2008,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3130826" y="3826565"/>
-          <a:ext cx="3118083" cy="0"/>
+          <a:off x="3096358" y="3943350"/>
+          <a:ext cx="2561492" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2080,13 +2084,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>163539</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>132491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
@@ -2139,13 +2143,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>9175</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2405,7 +2409,7 @@
       <xdr:rowOff>328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>163539</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3840</xdr:rowOff>
@@ -2449,13 +2453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>163539</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2508,28 +2512,30 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>1846</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="102" name="Elbow Connector 101"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6859846" y="3457250"/>
-          <a:ext cx="1198304" cy="314650"/>
+          <a:off x="6688396" y="3171825"/>
+          <a:ext cx="1541204" cy="771526"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 100077"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2555,13 +2561,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>60232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12132</xdr:rowOff>
@@ -2602,13 +2608,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>166244</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>10409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>18089</xdr:rowOff>
@@ -2651,13 +2657,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>139060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>7253</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
@@ -2708,13 +2714,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -2757,13 +2763,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>8899</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>1846</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2814,13 +2820,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>167054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2861,13 +2867,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>1846</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2910,13 +2916,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>1846</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2959,13 +2965,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>1846</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3006,15 +3012,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3065,13 +3071,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>11616</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3267,12 +3273,12 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>3627</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3280,19 +3286,398 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="40" name="Elbow Connector 39"/>
         <xdr:cNvCxnSpPr>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5143500" y="2114550"/>
+          <a:ext cx="3257550" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Pentagon 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="2914650"/>
+          <a:ext cx="685800" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Amp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Pentagon 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="1857375"/>
+          <a:ext cx="685800" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Amp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>3627</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
           <a:endCxn id="119" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="2114550"/>
+          <a:ext cx="1203777" cy="253360"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="933450"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Mod Level</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Oval 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="3705225"/>
+          <a:ext cx="685800" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Mod Level</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8572500" y="1619250"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5486400" y="2367910"/>
-          <a:ext cx="3775527" cy="546740"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -252"/>
-            <a:gd name="adj2" fmla="val 220206"/>
-          </a:avLst>
+          <a:off x="8572500" y="3429000"/>
+          <a:ext cx="0" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -3584,36 +3969,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BG39"/>
+  <dimension ref="B2:BN40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BN40"/>
+      <selection sqref="A1:BU41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:54" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:58" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:58" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:54" x14ac:dyDescent="0.15">
-      <c r="AY5" s="1"/>
+    <row r="5" spans="2:58" x14ac:dyDescent="0.15">
+      <c r="BF5" s="1"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:58" x14ac:dyDescent="0.15">
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="AA7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:54" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:58" x14ac:dyDescent="0.15">
       <c r="I8" t="s">
         <v>7</v>
       </c>
@@ -3621,20 +4006,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.15">
-      <c r="BB11" t="s">
+    <row r="12" spans="2:58" x14ac:dyDescent="0.15">
+      <c r="AR12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:58" x14ac:dyDescent="0.15">
+      <c r="AF14" t="s">
         <v>18</v>
       </c>
+      <c r="AT14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE14" s="2"/>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.15">
-      <c r="BA12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.15">
-      <c r="AX14" s="2"/>
-    </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:58" x14ac:dyDescent="0.15">
       <c r="AB15" t="s">
         <v>6</v>
       </c>
@@ -3642,7 +4028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:58" x14ac:dyDescent="0.15">
       <c r="AA16" t="s">
         <v>3</v>
       </c>
@@ -3652,156 +4038,158 @@
       <c r="AN16" t="s">
         <v>3</v>
       </c>
-      <c r="AQ16" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="17" spans="27:59" x14ac:dyDescent="0.15">
+    <row r="17" spans="27:66" x14ac:dyDescent="0.15">
       <c r="AB17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="27:59" x14ac:dyDescent="0.15">
+    <row r="18" spans="27:66" x14ac:dyDescent="0.15">
       <c r="AA18" t="s">
         <v>3</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="AQ18" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="BD20" t="s">
+    <row r="20" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AT20" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK20" t="s">
         <v>3</v>
       </c>
-      <c r="BG20" t="s">
+      <c r="BN20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="AB22" t="s">
+    <row r="22" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="BC22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AB23" t="s">
         <v>4</v>
       </c>
-      <c r="AO22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV22" t="s">
+    </row>
+    <row r="24" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AA24" t="s">
         <v>3</v>
       </c>
+      <c r="AF24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="AA23" t="s">
+    <row r="26" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AB26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AA27" t="s">
         <v>3</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AF27" t="s">
         <v>3</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AN27" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AB29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AA30" t="s">
         <v>3</v>
       </c>
+      <c r="AF30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="25" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="AB25" t="s">
+    <row r="32" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AB32" t="s">
         <v>5</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AO32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="AA26" t="s">
+    <row r="33" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AA33" t="s">
         <v>3</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AF33" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AB35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AA36" t="s">
         <v>3</v>
       </c>
-      <c r="AN26" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="28" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="AB28" t="s">
+    <row r="37" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AB37" t="s">
         <v>5</v>
       </c>
-      <c r="AO28" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="29" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="AA29" t="s">
+    <row r="38" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AA38" t="s">
         <v>3</v>
       </c>
-      <c r="AF29" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG29" t="s">
-        <v>11</v>
+      <c r="BF38" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="AB31" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>12</v>
+    <row r="39" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="BF39" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="27:59" x14ac:dyDescent="0.15">
-      <c r="AA32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="27:51" x14ac:dyDescent="0.15">
-      <c r="AB34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="27:51" x14ac:dyDescent="0.15">
-      <c r="AA35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="27:51" x14ac:dyDescent="0.15">
-      <c r="AB36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="27:51" x14ac:dyDescent="0.15">
-      <c r="AA37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="27:51" x14ac:dyDescent="0.15">
-      <c r="AY38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="27:51" x14ac:dyDescent="0.15">
-      <c r="AY39" t="s">
+    <row r="40" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="BF40" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Arduino MIDI-CV Converter 使用例 .xlsx
+++ b/Arduino MIDI-CV Converter 使用例 .xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>デジタル系</t>
     <rPh sb="4" eb="5">
@@ -118,7 +118,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.12.07</t>
+    <t>※未実装</t>
+    <rPh sb="1" eb="4">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5φ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019.01.25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -270,11 +281,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2076882208"/>
-        <c:axId val="2076879488"/>
+        <c:axId val="-451941328"/>
+        <c:axId val="-451938608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2076882208"/>
+        <c:axId val="-451941328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -316,7 +327,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076879488"/>
+        <c:crossAx val="-451938608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -324,7 +335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2076879488"/>
+        <c:axId val="-451938608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -374,7 +385,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2076882208"/>
+        <c:crossAx val="-451941328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3972,7 +3983,7 @@
   <dimension ref="B2:BN40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BU41"/>
+      <selection sqref="A1:BV41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3984,7 +3995,7 @@
     </row>
     <row r="3" spans="2:58" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:58" x14ac:dyDescent="0.15">
@@ -4063,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="BN20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="27:66" x14ac:dyDescent="0.15">
@@ -4106,7 +4117,7 @@
         <v>13</v>
       </c>
       <c r="BN27" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="27:66" x14ac:dyDescent="0.15">
@@ -4128,7 +4139,12 @@
         <v>13</v>
       </c>
       <c r="BN30" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="27:66" x14ac:dyDescent="0.15">
+      <c r="AF31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="27:66" x14ac:dyDescent="0.15">
@@ -4150,7 +4166,7 @@
         <v>11</v>
       </c>
       <c r="BN33" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="27:66" x14ac:dyDescent="0.15">

--- a/Arduino MIDI-CV Converter 使用例 .xlsx
+++ b/Arduino MIDI-CV Converter 使用例 .xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>デジタル系</t>
     <rPh sb="4" eb="5">
@@ -281,11 +281,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-451941328"/>
-        <c:axId val="-451938608"/>
+        <c:axId val="549958656"/>
+        <c:axId val="549957024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-451941328"/>
+        <c:axId val="549958656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -327,7 +327,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-451938608"/>
+        <c:crossAx val="549957024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -335,7 +335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-451938608"/>
+        <c:axId val="549957024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,7 +385,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-451941328"/>
+        <c:crossAx val="549958656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1130,13 +1130,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1148,8 +1148,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8058150" y="1714500"/>
-          <a:ext cx="2571750" cy="1885950"/>
+          <a:off x="8174935" y="1739348"/>
+          <a:ext cx="3478695" cy="1913282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,13 +1453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>2779</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -1507,13 +1507,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>2779</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -1561,13 +1561,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>2779</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>2120</xdr:rowOff>
@@ -2095,13 +2095,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>163539</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>132491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>45983</xdr:rowOff>
@@ -2420,7 +2420,7 @@
       <xdr:rowOff>328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>163539</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3840</xdr:rowOff>
@@ -2464,13 +2464,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>163539</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2524,29 +2524,27 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>1846</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:rowOff>86968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="102" name="Elbow Connector 101"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6688396" y="3171825"/>
-          <a:ext cx="1541204" cy="771526"/>
+          <a:off x="6785303" y="3217794"/>
+          <a:ext cx="1737501" cy="782708"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 34031"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2572,13 +2570,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>60232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12132</xdr:rowOff>
@@ -2619,13 +2617,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>166244</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>10409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>18089</xdr:rowOff>
@@ -2668,13 +2666,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>139060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>7253</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>52552</xdr:rowOff>
@@ -2725,13 +2723,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -2882,7 +2880,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2931,7 +2929,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2980,7 +2978,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3023,13 +3021,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>74</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3282,13 +3280,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:rowOff>84260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3296,18 +3294,16 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="40" name="Elbow Connector 39"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="52" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5143500" y="2114550"/>
-          <a:ext cx="3257550" cy="800100"/>
+          <a:off x="5218043" y="2171477"/>
+          <a:ext cx="3304761" cy="785414"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
+            <a:gd name="adj1" fmla="val 62187"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3333,13 +3329,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3383,6 +3379,13 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>Amp</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>x3</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3391,16 +3394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3409,8 +3412,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401050" y="1857375"/>
-          <a:ext cx="685800" cy="514350"/>
+          <a:off x="8931519" y="1853712"/>
+          <a:ext cx="674077" cy="505558"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3441,6 +3444,13 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>Amp</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>x3</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3449,14 +3459,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>3627</xdr:colOff>
+      <xdr:rowOff>84260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>3626</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>139060</xdr:rowOff>
     </xdr:to>
@@ -3470,8 +3480,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="2114550"/>
-          <a:ext cx="1203777" cy="253360"/>
+          <a:off x="9605596" y="2106491"/>
+          <a:ext cx="1183261" cy="223319"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3499,26 +3509,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Oval 22"/>
+        <xdr:cNvPr id="26" name="Oval 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="933450"/>
-          <a:ext cx="685800" cy="685800"/>
+          <a:off x="8572500" y="1848970"/>
+          <a:ext cx="504265" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3546,10 +3556,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Mod Level</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>POT</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3557,26 +3567,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Oval 62"/>
+        <xdr:cNvPr id="83" name="Oval 82"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="3705225"/>
-          <a:ext cx="685800" cy="685800"/>
+          <a:off x="8572500" y="2857500"/>
+          <a:ext cx="504265" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3604,10 +3614,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Mod Level</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>POT</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3615,28 +3625,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84045</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="23" idx="4"/>
+          <a:stCxn id="26" idx="6"/>
+          <a:endCxn id="52" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572500" y="1619250"/>
-          <a:ext cx="0" cy="266700"/>
+          <a:off x="9076765" y="2101103"/>
+          <a:ext cx="168088" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3664,28 +3675,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84045</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="0"/>
+          <a:stCxn id="83" idx="6"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8572500" y="3429000"/>
-          <a:ext cx="0" cy="276225"/>
+        <a:xfrm>
+          <a:off x="9076765" y="3109633"/>
+          <a:ext cx="168088" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3980,28 +3992,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BN40"/>
+  <dimension ref="B2:CW40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:BV41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:CC42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:58" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:101" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:58" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:101" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:58" x14ac:dyDescent="0.15">
-      <c r="BF5" s="1"/>
+    <row r="5" spans="2:101" x14ac:dyDescent="0.15">
+      <c r="BM5" s="1"/>
+      <c r="CW5" s="1"/>
     </row>
-    <row r="7" spans="2:58" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:101" x14ac:dyDescent="0.15">
       <c r="H7" t="s">
         <v>8</v>
       </c>
@@ -4009,7 +4022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:58" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:101" x14ac:dyDescent="0.15">
       <c r="I8" t="s">
         <v>7</v>
       </c>
@@ -4017,21 +4030,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:58" x14ac:dyDescent="0.15">
-      <c r="AR12" t="s">
+    <row r="12" spans="2:101" x14ac:dyDescent="0.15">
+      <c r="AT12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:58" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:101" x14ac:dyDescent="0.15">
       <c r="AF14" t="s">
         <v>18</v>
       </c>
-      <c r="AT14" t="s">
+      <c r="AV14" t="s">
         <v>3</v>
       </c>
-      <c r="BE14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="CV14" s="2"/>
     </row>
-    <row r="15" spans="2:58" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:101" x14ac:dyDescent="0.15">
       <c r="AB15" t="s">
         <v>6</v>
       </c>
@@ -4039,7 +4053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:58" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:101" x14ac:dyDescent="0.15">
       <c r="AA16" t="s">
         <v>3</v>
       </c>
@@ -4050,44 +4064,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="17" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AB17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="18" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AA18" t="s">
         <v>3</v>
       </c>
-      <c r="AQ18" t="s">
+      <c r="AS18" t="s">
         <v>10</v>
       </c>
-      <c r="BK18" t="s">
+      <c r="BR18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="27:66" x14ac:dyDescent="0.15">
-      <c r="AT20" t="s">
+    <row r="20" spans="27:73" x14ac:dyDescent="0.15">
+      <c r="AV20" t="s">
         <v>16</v>
       </c>
-      <c r="BK20" t="s">
+      <c r="BR20" t="s">
         <v>3</v>
       </c>
-      <c r="BN20" t="s">
+      <c r="BU20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="27:66" x14ac:dyDescent="0.15">
-      <c r="BC22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="23" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AB23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="24" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AA24" t="s">
         <v>3</v>
       </c>
@@ -4098,7 +4107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="26" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AB26" t="s">
         <v>5</v>
       </c>
@@ -4106,7 +4115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="27" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AA27" t="s">
         <v>3</v>
       </c>
@@ -4116,11 +4125,11 @@
       <c r="AN27" t="s">
         <v>13</v>
       </c>
-      <c r="BN27" t="s">
+      <c r="BU27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="29" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AB29" t="s">
         <v>5</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="30" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AA30" t="s">
         <v>3</v>
       </c>
@@ -4138,16 +4147,16 @@
       <c r="AN30" t="s">
         <v>13</v>
       </c>
-      <c r="BN30" t="s">
+      <c r="BU30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="31" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AF31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="32" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AB32" t="s">
         <v>5</v>
       </c>
@@ -4155,7 +4164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="33" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AA33" t="s">
         <v>3</v>
       </c>
@@ -4165,47 +4174,50 @@
       <c r="AN33" t="s">
         <v>11</v>
       </c>
-      <c r="BN33" t="s">
+      <c r="BU33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="35" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AB35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="36" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AA36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="37" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AB37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="27:66" x14ac:dyDescent="0.15">
+    <row r="38" spans="27:73" x14ac:dyDescent="0.15">
       <c r="AA38" t="s">
         <v>3</v>
       </c>
-      <c r="BF38" t="s">
+      <c r="BM38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="27:66" x14ac:dyDescent="0.15">
-      <c r="BF39" t="s">
+    <row r="39" spans="27:73" x14ac:dyDescent="0.15">
+      <c r="BM39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="27:66" x14ac:dyDescent="0.15">
-      <c r="BF40" t="s">
+    <row r="40" spans="27:73" x14ac:dyDescent="0.15">
+      <c r="BM40" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F &amp;D &amp;T</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>